--- a/TestCaseForERPGAP(App).xlsx
+++ b/TestCaseForERPGAP(App).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeveloperHubX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15765620-0A1D-4D53-BBC7-F3E700781AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311DB2A9-EACF-402E-88D8-A27CA7C31251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -808,6 +808,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1328,7 +1329,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -1624,9 +1625,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1698,8 +1699,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="10">
-        <f>COUNTIF(I7:I48, "PASS")</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
@@ -1727,7 +1727,6 @@
         <v>11</v>
       </c>
       <c r="J3" s="15">
-        <f>COUNTIF(I7:I46, "Fail")</f>
         <v>2</v>
       </c>
       <c r="K3" s="16"/>
@@ -1781,8 +1780,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="24">
-        <f>SUM(J2:J3:J4)</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="8"/>
@@ -1994,7 +1992,7 @@
         <v>11</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="55" t="s">
         <v>107</v>
       </c>
       <c r="L11" s="38" t="s">
@@ -2418,7 +2416,7 @@
         <v>11</v>
       </c>
       <c r="J22" s="50"/>
-      <c r="K22" t="s">
+      <c r="K22" s="66" t="s">
         <v>108</v>
       </c>
       <c r="L22" s="38" t="s">
@@ -8556,9 +8554,13 @@
       <formula1>"PASS,FAIL,WARNING"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K11" r:id="rId1" xr:uid="{F561348E-7B1D-45C9-9918-C8F6C6E14456}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{4C1B7ACD-BC03-4317-87D6-1C4B2B888EBA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/TestCaseForERPGAP(App).xlsx
+++ b/TestCaseForERPGAP(App).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeveloperHubX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311DB2A9-EACF-402E-88D8-A27CA7C31251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0F391B-9805-437A-AB93-4EDE741177C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,11 +804,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1625,9 +1625,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1667,10 +1667,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="7"/>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="65"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="7"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -2416,7 +2416,7 @@
         <v>11</v>
       </c>
       <c r="J22" s="50"/>
-      <c r="K22" s="66" t="s">
+      <c r="K22" s="64" t="s">
         <v>108</v>
       </c>
       <c r="L22" s="38" t="s">

--- a/TestCaseForERPGAP(App).xlsx
+++ b/TestCaseForERPGAP(App).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeveloperHubX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0F391B-9805-437A-AB93-4EDE741177C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962B2947-AA57-4053-81BE-47B54DF651BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="108">
   <si>
     <t>Product Name</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Suggestion</t>
-  </si>
-  <si>
-    <t>Functional Testing</t>
   </si>
   <si>
     <t>Mehedy Hasan</t>
@@ -1625,9 +1622,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1653,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -1681,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1717,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>10</v>
@@ -1745,7 +1742,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>14</v>
@@ -1768,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="20"/>
@@ -1834,23 +1831,23 @@
         <v>1</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="33" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>7</v>
@@ -1858,7 +1855,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="34"/>
       <c r="L7" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="8"/>
@@ -1868,23 +1865,23 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="43" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>43</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>7</v>
@@ -1892,7 +1889,7 @@
       <c r="J8" s="37"/>
       <c r="K8" s="5"/>
       <c r="L8" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="8"/>
@@ -1902,23 +1899,23 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>7</v>
@@ -1926,7 +1923,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="44"/>
       <c r="L9" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="8"/>
@@ -1936,23 +1933,23 @@
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="H10" s="40" t="s">
         <v>51</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>7</v>
@@ -1960,7 +1957,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="44"/>
       <c r="L10" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="38"/>
       <c r="N10" s="8"/>
@@ -1970,33 +1967,33 @@
         <v>5</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="38"/>
       <c r="N11" s="8"/>
@@ -2006,23 +2003,23 @@
         <v>6</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>7</v>
@@ -2030,7 +2027,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="55"/>
       <c r="L12" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M12" s="38"/>
       <c r="N12" s="8"/>
@@ -2040,23 +2037,23 @@
         <v>7</v>
       </c>
       <c r="B13" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>61</v>
-      </c>
       <c r="D13" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="H13" s="58" t="s">
         <v>63</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>64</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>7</v>
@@ -2064,7 +2061,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="43"/>
       <c r="L13" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M13" s="38"/>
       <c r="N13" s="8"/>
@@ -2074,25 +2071,25 @@
         <v>8</v>
       </c>
       <c r="B14" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="D14" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="56" t="s">
+      <c r="F14" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="54" t="s">
+      <c r="H14" s="58" t="s">
         <v>68</v>
-      </c>
-      <c r="H14" s="58" t="s">
-        <v>69</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>7</v>
@@ -2100,7 +2097,7 @@
       <c r="J14" s="38"/>
       <c r="K14" s="43"/>
       <c r="L14" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M14" s="38"/>
       <c r="N14" s="8"/>
@@ -2110,25 +2107,25 @@
         <v>9</v>
       </c>
       <c r="B15" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="54" t="s">
-        <v>66</v>
-      </c>
       <c r="D15" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="59" t="s">
+      <c r="H15" s="59" t="s">
         <v>71</v>
-      </c>
-      <c r="H15" s="59" t="s">
-        <v>72</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>7</v>
@@ -2136,7 +2133,7 @@
       <c r="J15" s="49"/>
       <c r="K15" s="48"/>
       <c r="L15" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M15" s="38"/>
       <c r="N15" s="8"/>
@@ -2146,25 +2143,25 @@
         <v>10</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="59" t="s">
+      <c r="H16" s="58" t="s">
         <v>76</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>77</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>7</v>
@@ -2172,7 +2169,7 @@
       <c r="J16" s="49"/>
       <c r="K16" s="48"/>
       <c r="L16" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M16" s="49"/>
       <c r="N16" s="8"/>
@@ -2182,25 +2179,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="59" t="s">
+      <c r="H17" s="59" t="s">
         <v>80</v>
-      </c>
-      <c r="H17" s="59" t="s">
-        <v>81</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>7</v>
@@ -2208,7 +2205,7 @@
       <c r="J17" s="49"/>
       <c r="K17" s="48"/>
       <c r="L17" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M17" s="49"/>
       <c r="N17" s="8"/>
@@ -2218,25 +2215,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="H18" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="H18" s="59" t="s">
-        <v>87</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>7</v>
@@ -2244,7 +2241,7 @@
       <c r="J18" s="49"/>
       <c r="K18" s="48"/>
       <c r="L18" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="8"/>
@@ -2254,25 +2251,25 @@
         <v>12</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="G19" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="H19" s="60" t="s">
         <v>91</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>92</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>7</v>
@@ -2280,7 +2277,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
       <c r="L19" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M19" s="50"/>
       <c r="N19" s="50"/>
@@ -2302,23 +2299,23 @@
         <v>13</v>
       </c>
       <c r="B20" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="60" t="s">
-        <v>94</v>
-      </c>
       <c r="D20" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="59"/>
       <c r="F20" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="H20" s="61" t="s">
         <v>96</v>
-      </c>
-      <c r="H20" s="61" t="s">
-        <v>97</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>7</v>
@@ -2326,7 +2323,7 @@
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
       <c r="L20" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
@@ -2348,23 +2345,23 @@
         <v>14</v>
       </c>
       <c r="B21" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>99</v>
-      </c>
       <c r="D21" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="62"/>
       <c r="F21" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="61" t="s">
         <v>100</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>101</v>
       </c>
       <c r="I21" s="63" t="s">
         <v>7</v>
@@ -2372,7 +2369,7 @@
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
       <c r="L21" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
@@ -2394,33 +2391,33 @@
         <v>15</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="H22" s="61" t="s">
         <v>105</v>
-      </c>
-      <c r="H22" s="61" t="s">
-        <v>106</v>
       </c>
       <c r="I22" s="63" t="s">
         <v>11</v>
       </c>
       <c r="J22" s="50"/>
       <c r="K22" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M22" s="50"/>
       <c r="N22" s="50"/>
@@ -2454,7 +2451,7 @@
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
       <c r="L23" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M23" s="50"/>
       <c r="N23" s="50"/>
@@ -2488,7 +2485,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
       <c r="L24" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M24" s="50"/>
       <c r="N24" s="50"/>
@@ -2522,7 +2519,7 @@
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
       <c r="L25" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M25" s="50"/>
       <c r="N25" s="50"/>
@@ -2556,7 +2553,7 @@
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
       <c r="L26" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="50"/>
@@ -2589,7 +2586,7 @@
       </c>
       <c r="J27" s="50"/>
       <c r="L27" s="38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="50"/>
